--- a/excel/宝宝技能表.xlsx
+++ b/excel/宝宝技能表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>宝宝技能ID</t>
   </si>
@@ -76,7 +76,11 @@
     <t>效果数值</t>
   </si>
   <si>
-    <t>场景的特效名称</t>
+    <t>场景的特效名称
+0:无
+1:雷电
+2:冰冻
+3:水柱</t>
   </si>
   <si>
     <t>技能文件</t>
@@ -133,7 +137,7 @@
     <t>param#[]</t>
   </si>
   <si>
-    <t>sceneEffect#str</t>
+    <t>sceneEffect#int</t>
   </si>
   <si>
     <t>skillFile#str</t>
@@ -175,10 +179,7 @@
     <t>蜥蜴</t>
   </si>
   <si>
-    <t>100|1001</t>
-  </si>
-  <si>
-    <t>xiyi</t>
+    <t>du</t>
   </si>
   <si>
     <t>skillMusic10020_mp3</t>
@@ -205,85 +206,91 @@
     <t>skillMusic10040_mp3</t>
   </si>
   <si>
-    <t>幽灵</t>
+    <t>雷宝宝</t>
+  </si>
+  <si>
+    <t>dian</t>
+  </si>
+  <si>
+    <t>skillMusic10050_mp3</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>bing</t>
+  </si>
+  <si>
+    <t>skillMusic10060_mp3</t>
+  </si>
+  <si>
+    <t>幽灵武士</t>
+  </si>
+  <si>
+    <t>youlingwushi</t>
+  </si>
+  <si>
+    <t>skillMusic10070_mp3</t>
+  </si>
+  <si>
+    <t>火男</t>
+  </si>
+  <si>
+    <t>huoshao</t>
+  </si>
+  <si>
+    <t>skillMusic10080_mp3</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>wudi</t>
+  </si>
+  <si>
+    <t>skillMusic10090_mp3</t>
+  </si>
+  <si>
+    <t>招财猫</t>
+  </si>
+  <si>
+    <t>bufaqiandemao</t>
+  </si>
+  <si>
+    <t>skillMusic10100_mp3</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>tuzi</t>
+  </si>
+  <si>
+    <t>变异蜥蜴</t>
+  </si>
+  <si>
+    <t>变异泡泡鱼</t>
+  </si>
+  <si>
+    <t>变异跳蚤</t>
+  </si>
+  <si>
+    <t>变异幽灵</t>
   </si>
   <si>
     <t>youling</t>
   </si>
   <si>
-    <t>skillMusic10050_mp3</t>
-  </si>
-  <si>
-    <t>企鹅</t>
-  </si>
-  <si>
-    <t>qie</t>
-  </si>
-  <si>
-    <t>skillMusic10060_mp3</t>
-  </si>
-  <si>
-    <t>幽灵武士</t>
-  </si>
-  <si>
-    <t>youlingwushi</t>
-  </si>
-  <si>
-    <t>skillMusic10070_mp3</t>
-  </si>
-  <si>
-    <t>火男</t>
+    <t>变异企鹅</t>
+  </si>
+  <si>
+    <t>变异幽灵武士</t>
+  </si>
+  <si>
+    <t>变异火男</t>
   </si>
   <si>
     <t>huobuqilai</t>
-  </si>
-  <si>
-    <t>skillMusic10080_mp3</t>
-  </si>
-  <si>
-    <t>无敌</t>
-  </si>
-  <si>
-    <t>wudi</t>
-  </si>
-  <si>
-    <t>skillMusic10090_mp3</t>
-  </si>
-  <si>
-    <t>招财猫</t>
-  </si>
-  <si>
-    <t>bufaqiandemao</t>
-  </si>
-  <si>
-    <t>skillMusic10100_mp3</t>
-  </si>
-  <si>
-    <t>变异软泥怪</t>
-  </si>
-  <si>
-    <t>100I1001</t>
-  </si>
-  <si>
-    <t>变异蜥蜴</t>
-  </si>
-  <si>
-    <t>变异泡泡鱼</t>
-  </si>
-  <si>
-    <t>变异跳蚤</t>
-  </si>
-  <si>
-    <t>变异幽灵</t>
-  </si>
-  <si>
-    <t>变异企鹅</t>
-  </si>
-  <si>
-    <t>变异幽灵武士</t>
-  </si>
-  <si>
-    <t>变异火男</t>
   </si>
   <si>
     <t>变异无敌</t>
@@ -298,9 +305,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -324,6 +331,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,7 +345,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,16 +396,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,66 +428,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -437,14 +436,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -459,9 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,19 +489,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,163 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,15 +680,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,6 +723,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -735,21 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1453,7 +1460,9 @@
       <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
@@ -1496,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0.6</v>
@@ -1504,30 +1513,32 @@
       <c r="I4" s="3">
         <v>-1</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>75</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1535,10 +1546,10 @@
         <v>10030</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -1561,27 +1572,29 @@
       <c r="J5" s="3">
         <v>-1</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
       <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:18">
@@ -1589,7 +1602,7 @@
         <v>10040</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -1601,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1615,27 +1628,29 @@
       <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:18">
@@ -1643,10 +1658,10 @@
         <v>10050</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -1658,38 +1673,40 @@
         <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>0.6</v>
       </c>
       <c r="I7" s="3">
-        <v>5000</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>20</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1697,7 +1714,7 @@
         <v>10060</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
@@ -1706,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1723,27 +1740,29 @@
       <c r="J8" s="3">
         <v>-1</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1751,7 +1770,7 @@
         <v>10070</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -1777,27 +1796,29 @@
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1805,10 +1826,10 @@
         <v>10080</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
@@ -1829,29 +1850,31 @@
         <v>-1</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1859,7 +1882,7 @@
         <v>10090</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>1</v>
@@ -1885,27 +1908,29 @@
       <c r="J11" s="3">
         <v>2</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="L11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1913,10 +1938,10 @@
         <v>10100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
@@ -1939,27 +1964,29 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
       <c r="L12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="N12" s="2">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1967,7 +1994,7 @@
         <v>10110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>1</v>
@@ -1991,16 +2018,19 @@
         <v>-1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>2</v>
@@ -2009,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>40</v>
@@ -2020,10 +2050,10 @@
         <v>10120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
@@ -2035,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0.6</v>
@@ -2043,30 +2073,32 @@
       <c r="I14" s="3">
         <v>-1</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>75</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2074,10 +2106,10 @@
         <v>10130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
@@ -2100,27 +2132,29 @@
       <c r="J15" s="3">
         <v>-1</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
       <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2128,7 +2162,7 @@
         <v>10140</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>1</v>
@@ -2154,27 +2188,29 @@
       <c r="J16" s="3">
         <v>100</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
       <c r="L16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N16" s="2">
-        <v>2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2182,7 +2218,7 @@
         <v>10150</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>1</v>
@@ -2208,27 +2244,29 @@
       <c r="J17" s="3">
         <v>-1</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
       <c r="L17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N17" s="2">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2257,32 +2295,34 @@
         <v>0.6</v>
       </c>
       <c r="I18" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J18" s="3">
         <v>-1</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N18" s="2">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2316,27 +2356,29 @@
       <c r="J19" s="3">
         <v>100</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
       <c r="L19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="N19" s="2">
-        <v>2</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2370,27 +2412,29 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
       <c r="L20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2398,7 +2442,7 @@
         <v>10190</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>1</v>
@@ -2424,27 +2468,29 @@
       <c r="J21" s="3">
         <v>2</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
       <c r="L21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="N21" s="2">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2452,10 +2498,10 @@
         <v>10200</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>1</v>
@@ -2478,27 +2524,29 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
       <c r="L22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="N22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/excel/宝宝技能表.xlsx
+++ b/excel/宝宝技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="25905" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="babySkillConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>宝宝技能ID</t>
   </si>
@@ -63,7 +63,10 @@
 3:符号变化
 4:速度减慢
 5:无法动弹
-6:变成幸运怪</t>
+6:变成幸运怪
+7:额外增加糖果
+8:额外增加连击
+9:额外增加分数</t>
   </si>
   <si>
     <t>范围值</t>
@@ -73,7 +76,9 @@
 &lt;0:没有时间</t>
   </si>
   <si>
-    <t>效果数值</t>
+    <t>效果数值
+效果7:1加算|数量
+效果7:2乘算|数量</t>
   </si>
   <si>
     <t>场景的特效名称
@@ -297,6 +302,24 @@
   </si>
   <si>
     <t>变异招财猫</t>
+  </si>
+  <si>
+    <t>额外增加糖果</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>2|2</t>
+  </si>
+  <si>
+    <t>额外增加连击</t>
+  </si>
+  <si>
+    <t>额外增加分数</t>
+  </si>
+  <si>
+    <t>1|10</t>
   </si>
 </sst>
 </file>
@@ -304,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -337,52 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +383,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,11 +459,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,39 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,187 +512,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,39 +708,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,7 +745,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,22 +789,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="$A18:$XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1317,7 +1340,7 @@
     <col min="19" max="31" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="99.75" spans="1:18">
+    <row r="1" ht="142.5" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -1573,7 +1596,7 @@
         <v>-1</v>
       </c>
       <c r="K5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>45</v>
@@ -1773,7 +1796,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
@@ -1797,7 +1820,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>45</v>
@@ -1909,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>45</v>
@@ -1965,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>45</v>
@@ -2333,7 +2356,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -2547,6 +2570,216 @@
       </c>
       <c r="R22" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>10210</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>10220</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>10230</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>10240</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>10250</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>10260</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
